--- a/Hardware/Bridge Controller/Bridge_Controller/BOM_S-Band_Transceiver_v1.0.xlsx
+++ b/Hardware/Bridge Controller/Bridge_Controller/BOM_S-Band_Transceiver_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkell\Repositories\openEPR\Hardware\Bridge Controller\Bridge_Controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tkeller\Repositories\openEPR\Hardware\Bridge Controller\Bridge_Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4D1C12-8E4D-48A4-8F7B-BBC84B2500B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ED2627-CA77-4C0E-89B9-7E06B8D75B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_S-Band_Transceiver_v1.0" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -761,6 +761,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -806,8 +815,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -853,7 +866,15 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1182,45 +1203,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="99.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1233,11 +1257,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
@@ -1250,11 +1274,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -1267,11 +1291,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -1284,11 +1308,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
@@ -1301,11 +1325,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
@@ -1318,11 +1342,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
@@ -1335,11 +1359,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
@@ -1352,11 +1376,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
@@ -1369,11 +1393,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
@@ -1386,11 +1410,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C12" t="s">
@@ -1403,11 +1427,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C13" t="s">
@@ -1420,11 +1444,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -1437,11 +1461,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="s">
@@ -1454,11 +1478,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
@@ -1471,11 +1495,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>27</v>
       </c>
       <c r="C17" t="s">
@@ -1488,11 +1512,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C18" t="s">
@@ -1505,11 +1529,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C19" t="s">
@@ -1525,11 +1549,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C20" t="s">
@@ -1542,11 +1566,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C21" t="s">
@@ -1559,11 +1583,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C22" t="s">
@@ -1576,11 +1600,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C23" t="s">
@@ -1593,11 +1617,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
@@ -1610,11 +1634,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C25" t="s">
@@ -1627,11 +1651,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C26" t="s">
@@ -1644,11 +1668,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C27" t="s">
@@ -1661,11 +1685,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C28" t="s">
@@ -1679,6 +1703,12 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:XFD28">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>